--- a/mock-api/file/deactive-cor.xlsx
+++ b/mock-api/file/deactive-cor.xlsx
@@ -16,61 +16,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Email</t>
   </si>
   <si>
-    <t>vipasinee-taew@hotmail.com</t>
+    <t>test1001@fakduai.com</t>
   </si>
   <si>
-    <t>duang_ja1989@hotmail.com</t>
+    <t>test1002@fakduai.com</t>
   </si>
   <si>
-    <t>sidazz@hotmail.com</t>
-  </si>
-  <si>
-    <t>prapasiri.ta@gmail.com</t>
-  </si>
-  <si>
-    <t>Mae_chazy@hotmail.com</t>
-  </si>
-  <si>
-    <t>xayrung@hotmail.com</t>
-  </si>
-  <si>
-    <t>munam_ntd29@hotmail.com</t>
-  </si>
-  <si>
-    <t>kree005@hotmail.com</t>
-  </si>
-  <si>
-    <t>agzmitai@gmail.com</t>
-  </si>
-  <si>
-    <t>w_waewwin@hotmail.com</t>
-  </si>
-  <si>
-    <t>TON78@hotmail.com</t>
-  </si>
-  <si>
-    <t>sanikame@hotmail.com</t>
-  </si>
-  <si>
-    <t>thansuta.v@gmail.com</t>
-  </si>
-  <si>
-    <t>Tangmay130@hotmail.com</t>
-  </si>
-  <si>
-    <t>suwimon.papoon@ktb.co.th</t>
+    <t>test1003@fakduai.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,6 +56,12 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF0451A5"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -118,10 +88,11 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -420,7 +391,7 @@
   <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -434,7 +405,7 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -449,85 +420,48 @@
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="A5" s="2"/>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="A6" s="2"/>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A7" s="2"/>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="A8" s="2"/>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="A9" s="2"/>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="A10" s="2"/>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A11" s="2"/>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A12" s="2"/>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="A13" s="2"/>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A14" s="2"/>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="A15" s="2"/>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="A16" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
-    <hyperlink ref="A16" r:id="rId4"/>
-    <hyperlink ref="A15" r:id="rId5"/>
-    <hyperlink ref="A14" r:id="rId6"/>
-    <hyperlink ref="A13" r:id="rId7"/>
-    <hyperlink ref="A12" r:id="rId8"/>
-    <hyperlink ref="A11" r:id="rId9"/>
-    <hyperlink ref="A10" r:id="rId10"/>
-    <hyperlink ref="A9" r:id="rId11"/>
-    <hyperlink ref="A8" r:id="rId12"/>
-    <hyperlink ref="A7" r:id="rId13"/>
-    <hyperlink ref="A6" r:id="rId14"/>
-    <hyperlink ref="A5" r:id="rId15"/>
+    <hyperlink ref="A3" r:id="rId1"/>
+    <hyperlink ref="A4" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId16"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
